--- a/mikro/Mikro İslem Tip Tablosu 14-10-2016.xlsx
+++ b/mikro/Mikro İslem Tip Tablosu 14-10-2016.xlsx
@@ -3676,7 +3676,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
